--- a/data/s_vals/2022/beeks_jalen.xlsx
+++ b/data/s_vals/2022/beeks_jalen.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.016799631930417</v>
+        <v>0.2917716402565462</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5246911461486936</v>
+        <v>0.306821227259698</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4893031109320483</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E2" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2.376090106639752</v>
+        <v>1.845572671350878</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4405202784308186</v>
+        <v>0.04271373187048222</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1990121036566324</v>
+        <v>0.04071648406533734</v>
       </c>
       <c r="D3" t="n">
-        <v>2.263954110880881</v>
+        <v>22.3905356188092</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8185319587781588</v>
+        <v>10.19245300693656</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.722018451746491</v>
+        <v>32.66641884168158</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.539653030276356</v>
+        <v>0.6606524410359556</v>
       </c>
       <c r="C4" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D4" t="n">
-        <v>2.263954110880881</v>
+        <v>22.3905356188092</v>
       </c>
       <c r="E4" t="n">
-        <v>1.910992563374965</v>
+        <v>1133.036916526867</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7.021959759751845</v>
+        <v>1157.743882668973</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.642121602190766</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C5" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2181074402325811</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E5" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5.512885315271583</v>
+        <v>5.586269137925634</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.642121602190766</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C6" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D6" t="n">
-        <v>2.263954110880881</v>
+        <v>22.3905356188092</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8185319587781588</v>
+        <v>10.19245300693656</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>8.03196772706945</v>
+        <v>37.52559925287081</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2022/beeks_jalen.xlsx
+++ b/data/s_vals/2022/beeks_jalen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>1.845572671350878</v>
       </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>32.66641884168158</v>
       </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>1157.743882668973</v>
       </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>5.586269137925634</v>
       </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -588,6 +605,9 @@
       </c>
       <c r="G6" t="n">
         <v>37.52559925287081</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2022/beeks_jalen.xlsx
+++ b/data/s_vals/2022/beeks_jalen.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2917716402565462</v>
+        <v>0.2881169905109251</v>
       </c>
       <c r="C2" t="n">
-        <v>0.306821227259698</v>
+        <v>0.3048912486333797</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7527432677738641</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.845572671350878</v>
+        <v>1.84748871573303</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04271373187048222</v>
+        <v>0.04172184405617529</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04071648406533734</v>
+        <v>0.04103571897497393</v>
       </c>
       <c r="D3" t="n">
-        <v>22.3905356188092</v>
+        <v>18.71679738969934</v>
       </c>
       <c r="E3" t="n">
-        <v>10.19245300693656</v>
+        <v>13.86384647080068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>32.66641884168158</v>
+        <v>32.66340142353117</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6606524410359556</v>
+        <v>0.6545652718822623</v>
       </c>
       <c r="C4" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D4" t="n">
-        <v>22.3905356188092</v>
+        <v>18.71679738969934</v>
       </c>
       <c r="E4" t="n">
-        <v>1133.036916526867</v>
+        <v>2797.565817734744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1157.743882668973</v>
+        <v>2818.564168095867</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -561,22 +561,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.286832544864788</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C5" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1494219747398047</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5.586269137925634</v>
+        <v>5.582307763322248</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -589,22 +589,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.286832544864788</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C6" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D6" t="n">
-        <v>22.3905356188092</v>
+        <v>18.71679738969934</v>
       </c>
       <c r="E6" t="n">
-        <v>10.19245300693656</v>
+        <v>13.86384647080068</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>37.52559925287081</v>
+        <v>37.47995879822157</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
